--- a/output/fit_clients/fit_round_211.xlsx
+++ b/output/fit_clients/fit_round_211.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1986948459.683585</v>
+        <v>1632716502.90256</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07277883748000459</v>
+        <v>0.09595574681764799</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0338316422441209</v>
+        <v>0.03747219514822592</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>993474223.7512474</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2544071474.754093</v>
+        <v>1997796896.214527</v>
       </c>
       <c r="F3" t="n">
-        <v>0.171577727450638</v>
+        <v>0.1350930402039415</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03441606699540437</v>
+        <v>0.04210549780949727</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1272035861.676512</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4422115344.618694</v>
+        <v>3444186419.382781</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1592037429599587</v>
+        <v>0.1591391999627012</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03282242687610162</v>
+        <v>0.03411319976408249</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>76</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2211057716.36864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3622481371.160785</v>
+        <v>3102818905.207741</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1003370522182043</v>
+        <v>0.07261097467235508</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04323437691509425</v>
+        <v>0.03610255212780999</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>79</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1811240714.263924</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2834284687.128595</v>
+        <v>2719446070.930642</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1335056633523962</v>
+        <v>0.1060322613624628</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0529733728657991</v>
+        <v>0.04655329757604577</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>36</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1417142282.854593</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3060232609.853864</v>
+        <v>2139096875.046124</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09653302801792868</v>
+        <v>0.08731516318124402</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03842195784122973</v>
+        <v>0.03616659337214699</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1530116263.990403</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2600402161.726706</v>
+        <v>3584370818.831974</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1739623987953517</v>
+        <v>0.1726820555510474</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02308787420750825</v>
+        <v>0.03021271723841958</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>67</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1300201097.512288</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1969492943.610764</v>
+        <v>2003296711.610998</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1334470527812603</v>
+        <v>0.1354012735861705</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03050949120742193</v>
+        <v>0.03468821489384125</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>984746502.6359522</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5880315058.076586</v>
+        <v>5152276686.764246</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1383638437716006</v>
+        <v>0.1391339960009707</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0350209279063352</v>
+        <v>0.04255323381829945</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>89</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2940157696.478105</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2622646398.261505</v>
+        <v>4270969163.868482</v>
       </c>
       <c r="F11" t="n">
-        <v>0.154686485949677</v>
+        <v>0.1461830991519066</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04830911236273559</v>
+        <v>0.03164833231273183</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>87</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1311323115.72518</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2352536255.579769</v>
+        <v>2945739654.799551</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1393380270464347</v>
+        <v>0.1758806188573264</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03752553069796221</v>
+        <v>0.04437140723103133</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>74</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1176268086.495577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4224877492.359906</v>
+        <v>4798458651.80713</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09145453086464918</v>
+        <v>0.07496224523996194</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02421491934307606</v>
+        <v>0.02939890087310211</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>71</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2112438789.676823</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3889633059.722983</v>
+        <v>3194395553.591448</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1763847617579382</v>
+        <v>0.1818551341225818</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03423178737074428</v>
+        <v>0.02973822345573645</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>70</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1944816499.869823</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1806536617.673215</v>
+        <v>1744160995.554216</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08832636003654883</v>
+        <v>0.1037759226372605</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03080620044292138</v>
+        <v>0.04040213258775822</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>903268463.8211684</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2456917363.813287</v>
+        <v>2365231085.609454</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08589017401019501</v>
+        <v>0.09471276057392895</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0389512953934605</v>
+        <v>0.04659043470883537</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>34</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1228458716.560887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3329935786.384197</v>
+        <v>3630342443.660097</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1225539953098124</v>
+        <v>0.1158017037529503</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04617980544938978</v>
+        <v>0.04067251213570758</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>62</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1664967960.905326</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2749837647.299854</v>
+        <v>2436674094.618521</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1652522214930996</v>
+        <v>0.1337845304528822</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03077069616240851</v>
+        <v>0.02850303971330069</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>69</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1374918872.006887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>981496628.7695839</v>
+        <v>1213625567.046869</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1384906894821615</v>
+        <v>0.1376848599287269</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02528974634003851</v>
+        <v>0.01785080405760917</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>490748339.0860761</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2205595902.336598</v>
+        <v>2400115260.153423</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1093108864223774</v>
+        <v>0.1605476648080709</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02420869013062481</v>
+        <v>0.01936894916546885</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1102797955.581521</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1992453875.36284</v>
+        <v>2291347339.832017</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06947095465103255</v>
+        <v>0.08518533287975083</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04268411860942141</v>
+        <v>0.03175429878558809</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>996226974.3584993</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3262795921.014755</v>
+        <v>2448187695.837129</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1022671222233178</v>
+        <v>0.1114245762553725</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0429779040981178</v>
+        <v>0.03599824897006932</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>59</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1631398006.286282</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1260767511.004356</v>
+        <v>1006667736.75007</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1447227466785356</v>
+        <v>0.1480258025659882</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0339032995924092</v>
+        <v>0.03792473768992886</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>630383781.744952</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3173904935.334833</v>
+        <v>2523239593.528913</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1103154619155269</v>
+        <v>0.09194253224346151</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0282325334506925</v>
+        <v>0.03156385837738991</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>62</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1586952491.205603</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1464603081.845413</v>
+        <v>1008787192.804996</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1104280754521825</v>
+        <v>0.07393198015936167</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02844195613309564</v>
+        <v>0.02387181701292596</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>732301497.9897951</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>920997704.9915</v>
+        <v>1228787283.908917</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1050758629778198</v>
+        <v>0.09305660587895905</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03284973538903198</v>
+        <v>0.03666717206642058</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>460498805.2070361</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3922819423.193777</v>
+        <v>3621351428.935932</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1052774191859587</v>
+        <v>0.1272332525421768</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02405626164614933</v>
+        <v>0.01779606594278021</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1961409725.543359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2737859997.545792</v>
+        <v>2449606946.588531</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1502797265270611</v>
+        <v>0.101979688634198</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04102407997221749</v>
+        <v>0.03664958474207865</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>68</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1368929987.211664</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5610539623.557003</v>
+        <v>4031741593.683602</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1114614412300926</v>
+        <v>0.1205252679620417</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04324470850450655</v>
+        <v>0.0388525920723392</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>94</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2805269716.999436</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2048824442.893419</v>
+        <v>1872541402.859343</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1179224594906408</v>
+        <v>0.1280011198064464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03005084405582693</v>
+        <v>0.03792643534511687</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1024412264.434805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1065825133.101533</v>
+        <v>1325789650.562688</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09035245822518724</v>
+        <v>0.1050590462338516</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04025988205684165</v>
+        <v>0.03366283653329917</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>532912549.5802156</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1321560142.784288</v>
+        <v>1780275597.507976</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1200831534204278</v>
+        <v>0.09186728100762681</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03578013937632673</v>
+        <v>0.0299421744571644</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>660780102.7746191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2864990955.486232</v>
+        <v>2417147271.15325</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1860820268221471</v>
+        <v>0.1811174896217064</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04993988054727228</v>
+        <v>0.04793851510548621</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>63</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1432495484.870957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1395256366.76596</v>
+        <v>1186697988.242799</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08190974483439575</v>
+        <v>0.07616759040766778</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02323711436790219</v>
+        <v>0.01821451094790091</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>697628156.3676101</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1312353555.382767</v>
+        <v>1129159945.986291</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1183706089614119</v>
+        <v>0.08137002114535555</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04403175491917675</v>
+        <v>0.04451451065026824</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>656176727.7565939</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3071677702.950468</v>
+        <v>2009344360.91022</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1396163681376559</v>
+        <v>0.1783335300844766</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01976319266728552</v>
+        <v>0.0203035490006897</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>53</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1535838827.651613</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1942881352.543028</v>
+        <v>2342990839.734376</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06801459464337122</v>
+        <v>0.07070408839733049</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0357430863360502</v>
+        <v>0.03362474510327888</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>55</v>
-      </c>
-      <c r="J37" t="n">
-        <v>971440695.6863002</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1756271116.248222</v>
+        <v>1406820724.990467</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1098483977489716</v>
+        <v>0.117828898750646</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0306800073069642</v>
+        <v>0.0335438246483187</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>878135571.162668</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1891123249.284548</v>
+        <v>1620874422.077813</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1266908699071959</v>
+        <v>0.1540573787221445</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02721340101902741</v>
+        <v>0.02988489391144063</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>945561635.7157447</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1288887585.150294</v>
+        <v>1255255694.727835</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1530341401198358</v>
+        <v>0.102857019426078</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05906938715681628</v>
+        <v>0.04683161793062415</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>644443811.5979853</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2685014169.219742</v>
+        <v>2768060740.767025</v>
       </c>
       <c r="F41" t="n">
-        <v>0.128201896828872</v>
+        <v>0.107140364262079</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02992424206723791</v>
+        <v>0.0310539005971084</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1342507091.800229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2878837870.97261</v>
+        <v>4172611491.22531</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09683219659762181</v>
+        <v>0.09866375028172131</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04124041219193064</v>
+        <v>0.03503206427496566</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>72</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1439418887.56499</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1945894804.982869</v>
+        <v>2079589175.152945</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1906044423987679</v>
+        <v>0.1830290765909401</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02389143386103353</v>
+        <v>0.02115302685172607</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>71</v>
-      </c>
-      <c r="J43" t="n">
-        <v>972947506.8341143</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1727046408.87294</v>
+        <v>1896022888.710253</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08538354682034999</v>
+        <v>0.08792148775706687</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03060782805389087</v>
+        <v>0.02583813961994382</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>863523256.2895287</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1992224790.514222</v>
+        <v>1640142513.594079</v>
       </c>
       <c r="F45" t="n">
-        <v>0.143443837542875</v>
+        <v>0.1417199317155235</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03862472752901851</v>
+        <v>0.05547966685905287</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>996112385.3124669</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4808046161.411573</v>
+        <v>4988592974.288646</v>
       </c>
       <c r="F46" t="n">
-        <v>0.110469056400249</v>
+        <v>0.1320050107843057</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05065139693382502</v>
+        <v>0.0611699072238257</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>75</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2404023096.482343</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4388497829.703666</v>
+        <v>4236085272.460083</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1383919649965164</v>
+        <v>0.1769044076419411</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05126389483715221</v>
+        <v>0.04607224596773831</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>57</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2194248936.01392</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3244159343.749158</v>
+        <v>2899579552.903873</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08232574312475541</v>
+        <v>0.08705021957588095</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03737504371676771</v>
+        <v>0.0243457714519813</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1622079750.157496</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1899411395.933148</v>
+        <v>1819540061.913967</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1268296530293384</v>
+        <v>0.1318169510066279</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04094293902749746</v>
+        <v>0.03565104905074239</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>949705667.8614194</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4194370719.851753</v>
+        <v>3170881196.697448</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1410471232077506</v>
+        <v>0.1726037389937623</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04421046681257462</v>
+        <v>0.04852935057913739</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>72</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2097185334.761179</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1138762753.320326</v>
+        <v>1042107665.343507</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1251981088688448</v>
+        <v>0.1604485979585644</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04000676240208936</v>
+        <v>0.05099800557887915</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>569381438.1058879</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4017071604.221703</v>
+        <v>4272127224.802665</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1169817278671748</v>
+        <v>0.09212583134728042</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03860056040226749</v>
+        <v>0.05316604883394615</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>87</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2008535857.565684</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3225976638.950747</v>
+        <v>3349345350.534935</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1944613880420284</v>
+        <v>0.2028793667541223</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02210511217375198</v>
+        <v>0.0224994731235929</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>60</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1612988336.258716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3620606558.377106</v>
+        <v>4098628231.030441</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1627403160959299</v>
+        <v>0.1368679989865078</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03651633193134623</v>
+        <v>0.03266988892585157</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>68</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1810303313.448819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3465476669.034817</v>
+        <v>3134381061.107594</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1926171434882338</v>
+        <v>0.1753199075343103</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02867291396749019</v>
+        <v>0.02006742553882372</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1732738285.818983</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1743176837.766186</v>
+        <v>1267630036.176679</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1531439599157612</v>
+        <v>0.1317995876727091</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04386465615551628</v>
+        <v>0.03812599149152745</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>871588425.0910656</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3351438205.297864</v>
+        <v>4445740596.271005</v>
       </c>
       <c r="F57" t="n">
-        <v>0.134897114369278</v>
+        <v>0.1243812338952079</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0170479072424006</v>
+        <v>0.0275408869283146</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>68</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1675719136.541679</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1515370413.582842</v>
+        <v>1633888675.388813</v>
       </c>
       <c r="F58" t="n">
-        <v>0.188727570401137</v>
+        <v>0.1651601103565464</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03184363389937959</v>
+        <v>0.03690567596096329</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>757685236.5025471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3868213813.618368</v>
+        <v>3522914082.616014</v>
       </c>
       <c r="F59" t="n">
-        <v>0.122982147470025</v>
+        <v>0.1284726462649614</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04414200828238393</v>
+        <v>0.0431269651367207</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1934106889.092266</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3449119111.43415</v>
+        <v>2507140664.5446</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1532733616361242</v>
+        <v>0.1640608670676416</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02374094512832486</v>
+        <v>0.03245260857800937</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>67</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1724559673.162047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2480024752.636576</v>
+        <v>2747982294.157351</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1608195879822434</v>
+        <v>0.1718837121805718</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02936585758158446</v>
+        <v>0.02737415560643658</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>73</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1240012405.805627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1827885188.682771</v>
+        <v>1366757335.563667</v>
       </c>
       <c r="F62" t="n">
-        <v>0.148414103290754</v>
+        <v>0.1442302712521088</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03743124523987468</v>
+        <v>0.03883869199348053</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>913942626.5864787</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3591395923.162982</v>
+        <v>3642219172.373818</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07191400750183491</v>
+        <v>0.07855290907855023</v>
       </c>
       <c r="G63" t="n">
-        <v>0.045828976054082</v>
+        <v>0.04030775831407995</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>60</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1795698042.199151</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4048371885.285549</v>
+        <v>3557395677.586515</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1903166285166355</v>
+        <v>0.156505007564414</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03382193401662092</v>
+        <v>0.02365063496298166</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>66</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2024185981.889982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4375302406.531812</v>
+        <v>3620300993.629061</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1288071322604472</v>
+        <v>0.1438928506115546</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02851075577619327</v>
+        <v>0.02353858883116321</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>76</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2187651199.420136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3615332079.524669</v>
+        <v>4775055089.615648</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1410282221556698</v>
+        <v>0.1081490670482557</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03815659070487314</v>
+        <v>0.04030158890443521</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>61</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1807665992.714119</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2334092970.797</v>
+        <v>2402082368.070508</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07355420945679221</v>
+        <v>0.08405862828864195</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04535686730354538</v>
+        <v>0.03144793074848663</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>68</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1167046560.024931</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4584805431.979564</v>
+        <v>5340148583.397398</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1048720616429929</v>
+        <v>0.1600296303078119</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04911612658731872</v>
+        <v>0.04696319248585862</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>70</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2292402747.198203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2076988257.154609</v>
+        <v>1871834187.906008</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1106466090311637</v>
+        <v>0.1202387467803182</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04312012163349773</v>
+        <v>0.04171748436106152</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1038494143.446151</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3642839380.078018</v>
+        <v>2845648398.029292</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06385864431851906</v>
+        <v>0.0785689189266979</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03158094816000964</v>
+        <v>0.04331820576450916</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>60</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1821419708.916214</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4128341942.617876</v>
+        <v>3560208598.866707</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1338352791083575</v>
+        <v>0.1413920951669844</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02677413812715897</v>
+        <v>0.02071019225022463</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>77</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2064171011.923377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2071577133.02475</v>
+        <v>1764775931.161033</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07430689057005241</v>
+        <v>0.07068356365347958</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05263713303112602</v>
+        <v>0.04447332686603148</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1035788501.26443</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2898848619.276235</v>
+        <v>2485995138.176493</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09918685722166941</v>
+        <v>0.09419109131576887</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04075691288354667</v>
+        <v>0.03642025498130509</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>80</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1449424314.847759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3388631150.985086</v>
+        <v>2429220190.467074</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1167922845172333</v>
+        <v>0.1507878824167909</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03533261522335678</v>
+        <v>0.03052348471387103</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>72</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1694315607.272384</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2170258256.80536</v>
+        <v>1878518837.213849</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1123927931820214</v>
+        <v>0.111446804429607</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03658891743811091</v>
+        <v>0.03696890981798769</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1085129076.666676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4338556317.533798</v>
+        <v>5071782946.792219</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1039394226006846</v>
+        <v>0.0854817617208506</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02113901708932967</v>
+        <v>0.02808621157163768</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2169278157.687887</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1877450898.473546</v>
+        <v>2016798218.751504</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1863426127279819</v>
+        <v>0.1502540353576024</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02647560546211308</v>
+        <v>0.02005450946916837</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>938725492.6765217</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3251959668.76403</v>
+        <v>3671319526.711926</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1059029505292623</v>
+        <v>0.1293710084597229</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05255841060268285</v>
+        <v>0.04150188364726858</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>73</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1625979853.643994</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1200591295.761388</v>
+        <v>1426455397.800522</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1103924251835977</v>
+        <v>0.1490907924166867</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02764268424828897</v>
+        <v>0.03875380840087146</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>600295629.7228646</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4365626230.325145</v>
+        <v>4285896417.922397</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1101536773883598</v>
+        <v>0.08759116706215657</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03654830692915385</v>
+        <v>0.03468091485395118</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>44</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2182813132.790827</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4533771364.310565</v>
+        <v>4899492399.081152</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08549427060058797</v>
+        <v>0.1123203836552192</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02128174047849157</v>
+        <v>0.02647838490602199</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2266885665.14204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4505994133.418504</v>
+        <v>4535745317.0626</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1376298954362933</v>
+        <v>0.212133595750472</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02440912821816999</v>
+        <v>0.02505301392022211</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2252997078.218896</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2376643928.123086</v>
+        <v>2235744269.54708</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1135718088402728</v>
+        <v>0.109049837744772</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02870986800969644</v>
+        <v>0.03964685795862022</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1188321996.256531</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2532672001.630534</v>
+        <v>1981740646.73217</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09471988212848789</v>
+        <v>0.09898929887749786</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0441935280809533</v>
+        <v>0.0343698767877948</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1266335927.800489</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3188511009.765857</v>
+        <v>2811143398.508645</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1824041235866454</v>
+        <v>0.1383827767135598</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03416117631500818</v>
+        <v>0.03870822626819839</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>80</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1594255585.829722</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2143992759.026005</v>
+        <v>2695629924.783058</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1215236068341378</v>
+        <v>0.1048189819278051</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01984644818117321</v>
+        <v>0.02227884764484002</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1071996427.153229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1461744206.085268</v>
+        <v>1314249612.055574</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1752477834521371</v>
+        <v>0.1456874762650107</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03957757213188546</v>
+        <v>0.0350787930985739</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>730872225.6951017</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3652546048.701601</v>
+        <v>2731650464.723206</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1570257423263934</v>
+        <v>0.1608178454203825</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02595460154609697</v>
+        <v>0.03646276475137617</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>82</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1826273119.263466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3517178232.555011</v>
+        <v>2847714050.984372</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1551248997426665</v>
+        <v>0.1600457831119909</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02849279103119882</v>
+        <v>0.02840184787864729</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>72</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1758589116.474115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1318147235.660781</v>
+        <v>2092183545.956083</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1138519682502076</v>
+        <v>0.122794137712098</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03744826245846208</v>
+        <v>0.05081053610242445</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>659073563.2399428</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1906071310.583129</v>
+        <v>1605682748.719262</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1430181815743615</v>
+        <v>0.126685253467218</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05665707510884397</v>
+        <v>0.06043687324239326</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>953035640.0451561</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2670405110.570316</v>
+        <v>2600704093.630545</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09973148578627501</v>
+        <v>0.06914833800154262</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0450037131198382</v>
+        <v>0.03700598685964303</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>54</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1335202552.133161</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3320949313.880775</v>
+        <v>4435983070.609458</v>
       </c>
       <c r="F93" t="n">
-        <v>0.140230481122336</v>
+        <v>0.1097466532576274</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04591351151392803</v>
+        <v>0.04621573519625836</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1660474701.455817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1984761357.589864</v>
+        <v>2502333203.885444</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1307188967450877</v>
+        <v>0.1516670246525867</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03401054501874121</v>
+        <v>0.04150212629463852</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>992380675.1543534</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3034378817.53988</v>
+        <v>2063299641.382161</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1233384733345959</v>
+        <v>0.1053447927271722</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04487809375129462</v>
+        <v>0.05095273820124663</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>50</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1517189405.980687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1457250574.215393</v>
+        <v>1691722258.680574</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1350307652329127</v>
+        <v>0.1130005381104515</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03849193811508394</v>
+        <v>0.03836965385210549</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>728625332.0171863</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4710392890.891913</v>
+        <v>4467289761.48923</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1139083672247321</v>
+        <v>0.170210592447574</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02188369583410709</v>
+        <v>0.01956666093054641</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>69</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2355196558.938356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2640005417.78105</v>
+        <v>2710342333.838471</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1232009909546144</v>
+        <v>0.1226772272389669</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03112176799545757</v>
+        <v>0.02631657992826911</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>56</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1320002669.172332</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2291019822.900767</v>
+        <v>2747052021.545619</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1462368860068229</v>
+        <v>0.115806190024967</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03237788884325308</v>
+        <v>0.02277154182580525</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>66</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1145509845.994795</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4125247219.157026</v>
+        <v>3250043310.16951</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1736987715528592</v>
+        <v>0.1163042220403121</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02317159153343043</v>
+        <v>0.02457873952067624</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2062623690.235016</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3545730835.955032</v>
+        <v>2284413640.989406</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1786775035503179</v>
+        <v>0.1775958028008364</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03787804847926717</v>
+        <v>0.04815526207891443</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>86</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1772865579.144251</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_211.xlsx
+++ b/output/fit_clients/fit_round_211.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1632716502.90256</v>
+        <v>2446569010.908852</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09595574681764799</v>
+        <v>0.0836428101274945</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03747219514822592</v>
+        <v>0.0285238955279574</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1997796896.214527</v>
+        <v>2467768779.555715</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1350930402039415</v>
+        <v>0.1385749647508575</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04210549780949727</v>
+        <v>0.04530403969978804</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3444186419.382781</v>
+        <v>3910098112.33452</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1591391999627012</v>
+        <v>0.126842940917219</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03411319976408249</v>
+        <v>0.02873092919066087</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3102818905.207741</v>
+        <v>3364815249.100749</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07261097467235508</v>
+        <v>0.0996549289671715</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03610255212780999</v>
+        <v>0.04195137189604657</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2719446070.930642</v>
+        <v>2603708685.810599</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1060322613624628</v>
+        <v>0.1298790416396971</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04655329757604577</v>
+        <v>0.03770837953811804</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2139096875.046124</v>
+        <v>2688788775.786535</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08731516318124402</v>
+        <v>0.08795672756076564</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03616659337214699</v>
+        <v>0.03527565045697705</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3584370818.831974</v>
+        <v>3063376031.457723</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1726820555510474</v>
+        <v>0.1352635747657255</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03021271723841958</v>
+        <v>0.02394966251558789</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2003296711.610998</v>
+        <v>1634159753.894684</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1354012735861705</v>
+        <v>0.1843269727322292</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03468821489384125</v>
+        <v>0.03205342149679604</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5152276686.764246</v>
+        <v>5139789391.507891</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1391339960009707</v>
+        <v>0.1306690997293552</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04255323381829945</v>
+        <v>0.04599392983646456</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4270969163.868482</v>
+        <v>2746661896.584423</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1461830991519066</v>
+        <v>0.1651147609830938</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03164833231273183</v>
+        <v>0.04462106553658059</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2945739654.799551</v>
+        <v>2940827783.244718</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1758806188573264</v>
+        <v>0.1354250275685313</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04437140723103133</v>
+        <v>0.05218456098629178</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4798458651.80713</v>
+        <v>5073267428.357787</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07496224523996194</v>
+        <v>0.07406838916816601</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02939890087310211</v>
+        <v>0.02629430175047013</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3194395553.591448</v>
+        <v>3308663948.010254</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1818551341225818</v>
+        <v>0.1769756201647997</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02973822345573645</v>
+        <v>0.02855030395879381</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1744160995.554216</v>
+        <v>1388527676.518917</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1037759226372605</v>
+        <v>0.0777510164933338</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04040213258775822</v>
+        <v>0.04735337703859675</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2365231085.609454</v>
+        <v>2062786455.787742</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09471276057392895</v>
+        <v>0.08247340118439446</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04659043470883537</v>
+        <v>0.03431816028213289</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3630342443.660097</v>
+        <v>3489126717.57779</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1158017037529503</v>
+        <v>0.1219975543277916</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04067251213570758</v>
+        <v>0.03227678063111415</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2436674094.618521</v>
+        <v>3306067600.386703</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1337845304528822</v>
+        <v>0.1563848120501387</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02850303971330069</v>
+        <v>0.02789214668646166</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1213625567.046869</v>
+        <v>928345839.1386453</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1376848599287269</v>
+        <v>0.144383145750636</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01785080405760917</v>
+        <v>0.01795246988113901</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2400115260.153423</v>
+        <v>2465698916.511355</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1605476648080709</v>
+        <v>0.1323867902732141</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01936894916546885</v>
+        <v>0.02047346601223035</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2291347339.832017</v>
+        <v>1913611004.306436</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08518533287975083</v>
+        <v>0.07090021518194652</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03175429878558809</v>
+        <v>0.03187856865496385</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2448187695.837129</v>
+        <v>3374333899.556637</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1114245762553725</v>
+        <v>0.1333706287849627</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03599824897006932</v>
+        <v>0.04182334295720475</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1006667736.75007</v>
+        <v>1459642656.624731</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1480258025659882</v>
+        <v>0.1267572089083673</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03792473768992886</v>
+        <v>0.04023535282039963</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2523239593.528913</v>
+        <v>3951409162.365814</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09194253224346151</v>
+        <v>0.09697862033692982</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03156385837738991</v>
+        <v>0.03659439170270272</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1008787192.804996</v>
+        <v>985004786.5113245</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07393198015936167</v>
+        <v>0.09447986701746959</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02387181701292596</v>
+        <v>0.02107037476318173</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1228787283.908917</v>
+        <v>1331310173.986299</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09305660587895905</v>
+        <v>0.07808140914577433</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03666717206642058</v>
+        <v>0.02580452560810936</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3621351428.935932</v>
+        <v>4617959042.30229</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1272332525421768</v>
+        <v>0.1471901132947349</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01779606594278021</v>
+        <v>0.02110510341825783</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2449606946.588531</v>
+        <v>3301079072.988174</v>
       </c>
       <c r="F28" t="n">
-        <v>0.101979688634198</v>
+        <v>0.1509993682782693</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03664958474207865</v>
+        <v>0.04058730928185163</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4031741593.683602</v>
+        <v>3821984906.11657</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1205252679620417</v>
+        <v>0.09847925368225734</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0388525920723392</v>
+        <v>0.04559012599738696</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1872541402.859343</v>
+        <v>1607704891.229416</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1280011198064464</v>
+        <v>0.09236086787210811</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03792643534511687</v>
+        <v>0.030586742121614</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1325789650.562688</v>
+        <v>1128058164.27216</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1050590462338516</v>
+        <v>0.0864856450319315</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03366283653329917</v>
+        <v>0.04382235709733803</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1780275597.507976</v>
+        <v>1307239736.786954</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09186728100762681</v>
+        <v>0.09203496868932898</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0299421744571644</v>
+        <v>0.02925735533130264</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2417147271.15325</v>
+        <v>2061844722.731333</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1811174896217064</v>
+        <v>0.1591673248892137</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04793851510548621</v>
+        <v>0.05918338553301127</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1186697988.242799</v>
+        <v>1053619785.721316</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07616759040766778</v>
+        <v>0.1046404010817204</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01821451094790091</v>
+        <v>0.02698201685546579</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1129159945.986291</v>
+        <v>1056772885.1378</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08137002114535555</v>
+        <v>0.08754600594498778</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04451451065026824</v>
+        <v>0.02764551220643918</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2009344360.91022</v>
+        <v>2962115193.506426</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1783335300844766</v>
+        <v>0.1472445844315116</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0203035490006897</v>
+        <v>0.02563156463501831</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2342990839.734376</v>
+        <v>2003847999.309532</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07070408839733049</v>
+        <v>0.07245421128734542</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03362474510327888</v>
+        <v>0.03368233723463799</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1406820724.990467</v>
+        <v>2198079650.488595</v>
       </c>
       <c r="F38" t="n">
-        <v>0.117828898750646</v>
+        <v>0.1002262012739326</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0335438246483187</v>
+        <v>0.03221777129049299</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1620874422.077813</v>
+        <v>1824981315.625963</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1540573787221445</v>
+        <v>0.1316721378502049</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02988489391144063</v>
+        <v>0.03098057741488515</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1255255694.727835</v>
+        <v>1431320426.94728</v>
       </c>
       <c r="F40" t="n">
-        <v>0.102857019426078</v>
+        <v>0.1477373239934245</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04683161793062415</v>
+        <v>0.04153867057457077</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2768060740.767025</v>
+        <v>2268822998.603539</v>
       </c>
       <c r="F41" t="n">
-        <v>0.107140364262079</v>
+        <v>0.1008915707166785</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0310539005971084</v>
+        <v>0.04600773335998827</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4172611491.22531</v>
+        <v>2860398967.182891</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09866375028172131</v>
+        <v>0.08779056089080982</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03503206427496566</v>
+        <v>0.02809174659352639</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2079589175.152945</v>
+        <v>2968870724.592268</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1830290765909401</v>
+        <v>0.1424142634373524</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02115302685172607</v>
+        <v>0.01870715561683126</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1896022888.710253</v>
+        <v>2282981947.35284</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08792148775706687</v>
+        <v>0.0881196956300451</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02583813961994382</v>
+        <v>0.02523106355032427</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1640142513.594079</v>
+        <v>1643106736.432243</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1417199317155235</v>
+        <v>0.1933280123703993</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05547966685905287</v>
+        <v>0.04133374545107048</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4988592974.288646</v>
+        <v>5081886366.176727</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1320050107843057</v>
+        <v>0.1188131257523816</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0611699072238257</v>
+        <v>0.04814356752688635</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4236085272.460083</v>
+        <v>4545493271.060443</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1769044076419411</v>
+        <v>0.1536627601374713</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04607224596773831</v>
+        <v>0.05593560807831524</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2899579552.903873</v>
+        <v>4371746827.50959</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08705021957588095</v>
+        <v>0.09030959145486075</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0243457714519813</v>
+        <v>0.02525902554854304</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1819540061.913967</v>
+        <v>1241298044.80803</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1318169510066279</v>
+        <v>0.1279697468183696</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03565104905074239</v>
+        <v>0.03278422141376933</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3170881196.697448</v>
+        <v>2848804604.813949</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1726037389937623</v>
+        <v>0.1654014778609314</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04852935057913739</v>
+        <v>0.0523790635037804</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1042107665.343507</v>
+        <v>1234235420.320491</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1604485979585644</v>
+        <v>0.1667374293936545</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05099800557887915</v>
+        <v>0.04981275925659113</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4272127224.802665</v>
+        <v>3366242111.266823</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09212583134728042</v>
+        <v>0.1188956616946166</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05316604883394615</v>
+        <v>0.05743577624670519</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3349345350.534935</v>
+        <v>2563847370.978437</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2028793667541223</v>
+        <v>0.1845983620677641</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0224994731235929</v>
+        <v>0.02660090111197971</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4098628231.030441</v>
+        <v>4458581825.030951</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1368679989865078</v>
+        <v>0.1685993323441357</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03266988892585157</v>
+        <v>0.03554985679309353</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3134381061.107594</v>
+        <v>4355632610.903061</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1753199075343103</v>
+        <v>0.2214620451687455</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02006742553882372</v>
+        <v>0.02307677359179363</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1267630036.176679</v>
+        <v>1219728896.996201</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1317995876727091</v>
+        <v>0.1097587739606145</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03812599149152745</v>
+        <v>0.04910792926890711</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4445740596.271005</v>
+        <v>4034193134.519741</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1243812338952079</v>
+        <v>0.1591424159415914</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0275408869283146</v>
+        <v>0.02734547340077207</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1633888675.388813</v>
+        <v>1623626170.393368</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1651601103565464</v>
+        <v>0.1661317615130263</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03690567596096329</v>
+        <v>0.03437820994069772</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3522914082.616014</v>
+        <v>4890372189.888764</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1284726462649614</v>
+        <v>0.1285466331933632</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0431269651367207</v>
+        <v>0.05017870921454314</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2507140664.5446</v>
+        <v>2498124145.061342</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1640608670676416</v>
+        <v>0.1477961795079219</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03245260857800937</v>
+        <v>0.0222650436066691</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2747982294.157351</v>
+        <v>3387037569.148599</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1718837121805718</v>
+        <v>0.130419943525677</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02737415560643658</v>
+        <v>0.02371137616070196</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1366757335.563667</v>
+        <v>1917179028.407316</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1442302712521088</v>
+        <v>0.1762478752449937</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03883869199348053</v>
+        <v>0.04273029600534089</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3642219172.373818</v>
+        <v>4646848980.221985</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07855290907855023</v>
+        <v>0.07968498584979172</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04030775831407995</v>
+        <v>0.03966879721538389</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3557395677.586515</v>
+        <v>4664713123.721982</v>
       </c>
       <c r="F64" t="n">
-        <v>0.156505007564414</v>
+        <v>0.179180814060576</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02365063496298166</v>
+        <v>0.03309398419766464</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3620300993.629061</v>
+        <v>5944290239.842586</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1438928506115546</v>
+        <v>0.117098361380151</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02353858883116321</v>
+        <v>0.02567321414272983</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4775055089.615648</v>
+        <v>5643508095.904976</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1081490670482557</v>
+        <v>0.09969221352389604</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04030158890443521</v>
+        <v>0.04568638465543955</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2402082368.070508</v>
+        <v>2590259869.950034</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08405862828864195</v>
+        <v>0.08474052663746205</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03144793074848663</v>
+        <v>0.04194453776155235</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5340148583.397398</v>
+        <v>5135745085.435113</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1600296303078119</v>
+        <v>0.1092619252925399</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04696319248585862</v>
+        <v>0.04820184519276501</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1871834187.906008</v>
+        <v>1815746798.754093</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1202387467803182</v>
+        <v>0.1481667556536327</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04171748436106152</v>
+        <v>0.03688477412767312</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2845648398.029292</v>
+        <v>2850984913.43147</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0785689189266979</v>
+        <v>0.09918855808955648</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04331820576450916</v>
+        <v>0.03167164808493638</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3560208598.866707</v>
+        <v>5435027982.252824</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1413920951669844</v>
+        <v>0.1425732633577643</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02071019225022463</v>
+        <v>0.02665627048134143</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1764775931.161033</v>
+        <v>2030790733.500812</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07068356365347958</v>
+        <v>0.07209648347490456</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04447332686603148</v>
+        <v>0.03246842265278822</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2485995138.176493</v>
+        <v>2244392944.698068</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09419109131576887</v>
+        <v>0.1045451182911675</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03642025498130509</v>
+        <v>0.03248514722591097</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2429220190.467074</v>
+        <v>3408118751.609938</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1507878824167909</v>
+        <v>0.1685163958879844</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03052348471387103</v>
+        <v>0.0235492503172298</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1878518837.213849</v>
+        <v>1809417488.036611</v>
       </c>
       <c r="F75" t="n">
-        <v>0.111446804429607</v>
+        <v>0.1076163433072598</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03696890981798769</v>
+        <v>0.03734147164341303</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5071782946.792219</v>
+        <v>4808322513.158902</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0854817617208506</v>
+        <v>0.0946148708870434</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02808621157163768</v>
+        <v>0.03154661571402822</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2016798218.751504</v>
+        <v>2311840755.448104</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1502540353576024</v>
+        <v>0.162360235441493</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02005450946916837</v>
+        <v>0.02598020065433585</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3671319526.711926</v>
+        <v>4803629979.618847</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1293710084597229</v>
+        <v>0.1172763366822696</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04150188364726858</v>
+        <v>0.03980176403122111</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1426455397.800522</v>
+        <v>1204858967.621721</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1490907924166867</v>
+        <v>0.1353613932621368</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03875380840087146</v>
+        <v>0.02513742894768849</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4285896417.922397</v>
+        <v>4267680101.146684</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08759116706215657</v>
+        <v>0.08441111669800765</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03468091485395118</v>
+        <v>0.03478732795876623</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4899492399.081152</v>
+        <v>3199533822.67309</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1123203836552192</v>
+        <v>0.1189769926627062</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02647838490602199</v>
+        <v>0.03109433410592302</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4535745317.0626</v>
+        <v>4373397343.49846</v>
       </c>
       <c r="F82" t="n">
-        <v>0.212133595750472</v>
+        <v>0.1604422242458401</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02505301392022211</v>
+        <v>0.02377921548533515</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2235744269.54708</v>
+        <v>2347694590.555769</v>
       </c>
       <c r="F83" t="n">
-        <v>0.109049837744772</v>
+        <v>0.1477794126392087</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03964685795862022</v>
+        <v>0.03458813841223994</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1981740646.73217</v>
+        <v>2186411197.723891</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09898929887749786</v>
+        <v>0.1188241111753747</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0343698767877948</v>
+        <v>0.03559919533915471</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2811143398.508645</v>
+        <v>3631129588.27262</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1383827767135598</v>
+        <v>0.1525514385517752</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03870822626819839</v>
+        <v>0.03807121288742992</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2695629924.783058</v>
+        <v>1981306195.103011</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1048189819278051</v>
+        <v>0.1636012368344352</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02227884764484002</v>
+        <v>0.02471724703573764</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1314249612.055574</v>
+        <v>1432765674.805248</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1456874762650107</v>
+        <v>0.1263095689621709</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0350787930985739</v>
+        <v>0.04387369999330783</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2731650464.723206</v>
+        <v>2772751226.461552</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1608178454203825</v>
+        <v>0.1697764482330899</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03646276475137617</v>
+        <v>0.02655944009185938</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2847714050.984372</v>
+        <v>2971001573.73764</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1600457831119909</v>
+        <v>0.1505266519922587</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02840184787864729</v>
+        <v>0.02998838351335189</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2092183545.956083</v>
+        <v>1451313901.989943</v>
       </c>
       <c r="F90" t="n">
-        <v>0.122794137712098</v>
+        <v>0.09221299030635759</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05081053610242445</v>
+        <v>0.05229498356616719</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1605682748.719262</v>
+        <v>1767202698.018832</v>
       </c>
       <c r="F91" t="n">
-        <v>0.126685253467218</v>
+        <v>0.1504493334200591</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06043687324239326</v>
+        <v>0.05092239367816623</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2600704093.630545</v>
+        <v>2929026096.699912</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06914833800154262</v>
+        <v>0.08676338423216451</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03700598685964303</v>
+        <v>0.04613435781983333</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4435983070.609458</v>
+        <v>3243462959.270741</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1097466532576274</v>
+        <v>0.1246087023172326</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04621573519625836</v>
+        <v>0.03414243788303911</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2502333203.885444</v>
+        <v>2377613512.27614</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1516670246525867</v>
+        <v>0.1546102846338044</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04150212629463852</v>
+        <v>0.03175803981556476</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2063299641.382161</v>
+        <v>3282612129.065212</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1053447927271722</v>
+        <v>0.08566516938887175</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05095273820124663</v>
+        <v>0.04720666139635345</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1691722258.680574</v>
+        <v>1928207935.087713</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1130005381104515</v>
+        <v>0.09017603164660719</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03836965385210549</v>
+        <v>0.03693783375104022</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4467289761.48923</v>
+        <v>4494774924.546781</v>
       </c>
       <c r="F97" t="n">
-        <v>0.170210592447574</v>
+        <v>0.143844960103299</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01956666093054641</v>
+        <v>0.02670908606141919</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2710342333.838471</v>
+        <v>3431961528.912168</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1226772272389669</v>
+        <v>0.1155758306205762</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02631657992826911</v>
+        <v>0.02715501993514488</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2747052021.545619</v>
+        <v>3185814035.521528</v>
       </c>
       <c r="F99" t="n">
-        <v>0.115806190024967</v>
+        <v>0.1014898101354302</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02277154182580525</v>
+        <v>0.02504819932177461</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3250043310.16951</v>
+        <v>3738929188.505105</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1163042220403121</v>
+        <v>0.1553064622193035</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02457873952067624</v>
+        <v>0.02728442782800442</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2284413640.989406</v>
+        <v>2979953120.771994</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1775958028008364</v>
+        <v>0.1536114476746308</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04815526207891443</v>
+        <v>0.05866389227076382</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_211.xlsx
+++ b/output/fit_clients/fit_round_211.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2446569010.908852</v>
+        <v>2240864174.676609</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0836428101274945</v>
+        <v>0.08188535150396828</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0285238955279574</v>
+        <v>0.0450741260838998</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2467768779.555715</v>
+        <v>1673725681.295513</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1385749647508575</v>
+        <v>0.1220745076599312</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04530403969978804</v>
+        <v>0.04892019051737527</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3910098112.33452</v>
+        <v>4428272365.111704</v>
       </c>
       <c r="F4" t="n">
-        <v>0.126842940917219</v>
+        <v>0.112603047342718</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02873092919066087</v>
+        <v>0.03629237687952847</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>115</v>
+      </c>
+      <c r="J4" t="n">
+        <v>211</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3364815249.100749</v>
+        <v>3448235462.769413</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0996549289671715</v>
+        <v>0.06722720366222142</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04195137189604657</v>
+        <v>0.04555133698241971</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>87</v>
+      </c>
+      <c r="J5" t="n">
+        <v>210</v>
+      </c>
+      <c r="K5" t="n">
+        <v>107.0570464546469</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2603708685.810599</v>
+        <v>2500364511.783261</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1298790416396971</v>
+        <v>0.0902245233715937</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03770837953811804</v>
+        <v>0.04482708473880109</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2688788775.786535</v>
+        <v>2271643621.599133</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08795672756076564</v>
+        <v>0.06492181643803625</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03527565045697705</v>
+        <v>0.04248643686898616</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3063376031.457723</v>
+        <v>3045136544.596548</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1352635747657255</v>
+        <v>0.2111890223606434</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02394966251558789</v>
+        <v>0.03229438637712203</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>59</v>
+      </c>
+      <c r="J8" t="n">
+        <v>208</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1634159753.894684</v>
+        <v>1928067398.444346</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1843269727322292</v>
+        <v>0.1956029801981548</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03205342149679604</v>
+        <v>0.03022599055168132</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5139789391.507891</v>
+        <v>4860231657.158829</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1306690997293552</v>
+        <v>0.2137361997190404</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04599392983646456</v>
+        <v>0.03734459534991477</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>192</v>
+      </c>
+      <c r="J10" t="n">
+        <v>211</v>
+      </c>
+      <c r="K10" t="n">
+        <v>126.1221466699504</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2746661896.584423</v>
+        <v>3233465254.282226</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1651147609830938</v>
+        <v>0.1807410632624253</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04462106553658059</v>
+        <v>0.03651668142360428</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>211</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2940827783.244718</v>
+        <v>2298962726.341204</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1354250275685313</v>
+        <v>0.1640372440558482</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05218456098629178</v>
+        <v>0.03912269375025163</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5073267428.357787</v>
+        <v>5181071933.985943</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07406838916816601</v>
+        <v>0.09748017973062216</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02629430175047013</v>
+        <v>0.03084410667418351</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>105</v>
+      </c>
+      <c r="J13" t="n">
+        <v>211</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3308663948.010254</v>
+        <v>2895227701.429945</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1769756201647997</v>
+        <v>0.1685681066115834</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02855030395879381</v>
+        <v>0.03204171982892695</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>41</v>
+      </c>
+      <c r="J14" t="n">
+        <v>210</v>
+      </c>
+      <c r="K14" t="n">
+        <v>67.69296283980195</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1388527676.518917</v>
+        <v>1272857819.352707</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0777510164933338</v>
+        <v>0.06716083888374057</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04735337703859675</v>
+        <v>0.03196274373807831</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2062786455.787742</v>
+        <v>2191899822.497936</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08247340118439446</v>
+        <v>0.1069352217404664</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03431816028213289</v>
+        <v>0.03755809886850855</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3489126717.57779</v>
+        <v>4529523455.004783</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1219975543277916</v>
+        <v>0.1093386896361502</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03227678063111415</v>
+        <v>0.04226267269097325</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>101</v>
+      </c>
+      <c r="J17" t="n">
+        <v>211</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3306067600.386703</v>
+        <v>2488801315.367604</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1563848120501387</v>
+        <v>0.13212594129379</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02789214668646166</v>
+        <v>0.0226420354679165</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>54</v>
+      </c>
+      <c r="J18" t="n">
+        <v>209</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>928345839.1386453</v>
+        <v>1017211178.837937</v>
       </c>
       <c r="F19" t="n">
-        <v>0.144383145750636</v>
+        <v>0.1630079387833455</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01795246988113901</v>
+        <v>0.02721491063687639</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2465698916.511355</v>
+        <v>2781140344.796911</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1323867902732141</v>
+        <v>0.1257513884376143</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02047346601223035</v>
+        <v>0.02001748607964299</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1913611004.306436</v>
+        <v>2649471405.483107</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07090021518194652</v>
+        <v>0.08003964993056452</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03187856865496385</v>
+        <v>0.03524540889711618</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3374333899.556637</v>
+        <v>2604039247.314718</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1333706287849627</v>
+        <v>0.1421510069945814</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04182334295720475</v>
+        <v>0.04092487436587953</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>54</v>
+      </c>
+      <c r="J22" t="n">
+        <v>208</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1459642656.624731</v>
+        <v>1475287036.978504</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1267572089083673</v>
+        <v>0.1486023751513617</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04023535282039963</v>
+        <v>0.04121028310356582</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3951409162.365814</v>
+        <v>3452744470.970279</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09697862033692982</v>
+        <v>0.1114757252444494</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03659439170270272</v>
+        <v>0.02911291960088864</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>65</v>
+      </c>
+      <c r="J24" t="n">
+        <v>211</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>985004786.5113245</v>
+        <v>893199318.8137958</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09447986701746959</v>
+        <v>0.1139985111489493</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02107037476318173</v>
+        <v>0.02051589931684844</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1331310173.986299</v>
+        <v>1031146900.89778</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07808140914577433</v>
+        <v>0.07870008589590176</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02580452560810936</v>
+        <v>0.03023475331749442</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1382,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4617959042.30229</v>
+        <v>3797037208.651578</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1471901132947349</v>
+        <v>0.1219166037396471</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02110510341825783</v>
+        <v>0.02575589267732886</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>83</v>
+      </c>
+      <c r="J27" t="n">
+        <v>211</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3301079072.988174</v>
+        <v>2756350310.829015</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1509993682782693</v>
+        <v>0.1000505799983332</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04058730928185163</v>
+        <v>0.04048778149724407</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>203</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3821984906.11657</v>
+        <v>5797936074.815795</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09847925368225734</v>
+        <v>0.1476005793525572</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04559012599738696</v>
+        <v>0.04607574285551259</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>200</v>
+      </c>
+      <c r="J29" t="n">
+        <v>211</v>
+      </c>
+      <c r="K29" t="n">
+        <v>129.1392502062059</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1489,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1607704891.229416</v>
+        <v>1589104730.835269</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09236086787210811</v>
+        <v>0.1090259582728235</v>
       </c>
       <c r="G30" t="n">
-        <v>0.030586742121614</v>
+        <v>0.0263639950223907</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1128058164.27216</v>
+        <v>1002755990.45322</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0864856450319315</v>
+        <v>0.08294735978333527</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04382235709733803</v>
+        <v>0.05201315760604189</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1307239736.786954</v>
+        <v>1184996421.716139</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09203496868932898</v>
+        <v>0.1026650914490181</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02925735533130264</v>
+        <v>0.03006866058006767</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2061844722.731333</v>
+        <v>2006993709.619961</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1591673248892137</v>
+        <v>0.1423116385937318</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05918338553301127</v>
+        <v>0.04991813275485218</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1053619785.721316</v>
+        <v>1096017974.826247</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1046404010817204</v>
+        <v>0.0799424153297202</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02698201685546579</v>
+        <v>0.0239794684551685</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1056772885.1378</v>
+        <v>1218187744.022339</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08754600594498778</v>
+        <v>0.1140439567982311</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02764551220643918</v>
+        <v>0.02837174744526401</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2962115193.506426</v>
+        <v>2893741289.806334</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1472445844315116</v>
+        <v>0.1311129875078116</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02563156463501831</v>
+        <v>0.0188330859101688</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2003847999.309532</v>
+        <v>2617647428.28909</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07245421128734542</v>
+        <v>0.07881583448091437</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03368233723463799</v>
+        <v>0.03480940992559062</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2198079650.488595</v>
+        <v>1825526798.360906</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1002262012739326</v>
+        <v>0.08759959560970298</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03221777129049299</v>
+        <v>0.02428672885635615</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1824981315.625963</v>
+        <v>1810746907.405889</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1316721378502049</v>
+        <v>0.1181529560783297</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03098057741488515</v>
+        <v>0.02225707745213664</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1431320426.94728</v>
+        <v>1275816515.482301</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1477373239934245</v>
+        <v>0.1628778682447052</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04153867057457077</v>
+        <v>0.04816872370677755</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1874,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2268822998.603539</v>
+        <v>2568665693.756748</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1008915707166785</v>
+        <v>0.1377863199531862</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04600773335998827</v>
+        <v>0.03944054387175149</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1909,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2860398967.182891</v>
+        <v>3103915425.520806</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08779056089080982</v>
+        <v>0.07971742133628276</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02809174659352639</v>
+        <v>0.04576638034520011</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>83</v>
+      </c>
+      <c r="J42" t="n">
+        <v>209</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2968870724.592268</v>
+        <v>3035285845.991974</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1424142634373524</v>
+        <v>0.1656251922654104</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01870715561683126</v>
+        <v>0.02131117698560575</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2282981947.35284</v>
+        <v>1786673494.225766</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0881196956300451</v>
+        <v>0.09035028207985311</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02523106355032427</v>
+        <v>0.03042351198628281</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1643106736.432243</v>
+        <v>1841941170.241835</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1933280123703993</v>
+        <v>0.1855391638159596</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04133374545107048</v>
+        <v>0.05320538053130874</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5081886366.176727</v>
+        <v>4485581874.80847</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1188131257523816</v>
+        <v>0.1563401962573911</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04814356752688635</v>
+        <v>0.03723466629910682</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>120</v>
+      </c>
+      <c r="J46" t="n">
+        <v>211</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2084,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4545493271.060443</v>
+        <v>4794278266.804864</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1536627601374713</v>
+        <v>0.1792284858154856</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05593560807831524</v>
+        <v>0.0468727293524633</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>94</v>
+      </c>
+      <c r="J47" t="n">
+        <v>211</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2113,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4371746827.50959</v>
+        <v>3048202460.783158</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09030959145486075</v>
+        <v>0.06889874014156126</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02525902554854304</v>
+        <v>0.03365233021027379</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>104</v>
+      </c>
+      <c r="J48" t="n">
+        <v>210</v>
+      </c>
+      <c r="K48" t="n">
+        <v>75.17648651520877</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1241298044.80803</v>
+        <v>1505529406.483561</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1279697468183696</v>
+        <v>0.1441709356443496</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03278422141376933</v>
+        <v>0.04165157121788286</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2185,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2848804604.813949</v>
+        <v>2840156301.754741</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1654014778609314</v>
+        <v>0.1418966191170997</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0523790635037804</v>
+        <v>0.03325426485996728</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>67</v>
+      </c>
+      <c r="J50" t="n">
+        <v>207</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2220,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1234235420.320491</v>
+        <v>1283577732.015319</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1667374293936545</v>
+        <v>0.1876853804707143</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04981275925659113</v>
+        <v>0.03300760266367711</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2255,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3366242111.266823</v>
+        <v>4962699335.125978</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1188956616946166</v>
+        <v>0.1209258597665579</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05743577624670519</v>
+        <v>0.04665905478066214</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>143</v>
+      </c>
+      <c r="J52" t="n">
+        <v>210</v>
+      </c>
+      <c r="K52" t="n">
+        <v>113.079468765087</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2563847370.978437</v>
+        <v>2837967698.559376</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1845983620677641</v>
+        <v>0.1543023130755334</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02660090111197971</v>
+        <v>0.02713634927758441</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>205</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2327,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4458581825.030951</v>
+        <v>4464383381.679138</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1685993323441357</v>
+        <v>0.1451966517205562</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03554985679309353</v>
+        <v>0.05137188191909311</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>110</v>
+      </c>
+      <c r="J54" t="n">
+        <v>211</v>
+      </c>
+      <c r="K54" t="n">
+        <v>119.4037814317563</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4355632610.903061</v>
+        <v>3533957388.427864</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2214620451687455</v>
+        <v>0.1955039301698568</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02307677359179363</v>
+        <v>0.0282370850142645</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>94</v>
+      </c>
+      <c r="J55" t="n">
+        <v>210</v>
+      </c>
+      <c r="K55" t="n">
+        <v>95.65266301990232</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1219728896.996201</v>
+        <v>1679804299.013105</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1097587739606145</v>
+        <v>0.148351779419926</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04910792926890711</v>
+        <v>0.05081619183598254</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4034193134.519741</v>
+        <v>3633162801.147327</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1591424159415914</v>
+        <v>0.1345061081560822</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02734547340077207</v>
+        <v>0.01865796505469416</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>83</v>
+      </c>
+      <c r="J57" t="n">
+        <v>210</v>
+      </c>
+      <c r="K57" t="n">
+        <v>102.5627730802434</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1623626170.393368</v>
+        <v>1169510898.967351</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1661317615130263</v>
+        <v>0.1584204428398008</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03437820994069772</v>
+        <v>0.03528972487627727</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4890372189.888764</v>
+        <v>3339149443.348808</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1285466331933632</v>
+        <v>0.1118368695767221</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05017870921454314</v>
+        <v>0.04153578092905459</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>102</v>
+      </c>
+      <c r="J59" t="n">
+        <v>210</v>
+      </c>
+      <c r="K59" t="n">
+        <v>80.64848708362037</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2498124145.061342</v>
+        <v>3191908150.549835</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1477961795079219</v>
+        <v>0.1881991687788857</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0222650436066691</v>
+        <v>0.03219801244976951</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>30</v>
+      </c>
+      <c r="J60" t="n">
+        <v>210</v>
+      </c>
+      <c r="K60" t="n">
+        <v>83.28516258555139</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3387037569.148599</v>
+        <v>2733559172.894965</v>
       </c>
       <c r="F61" t="n">
-        <v>0.130419943525677</v>
+        <v>0.1189037700028031</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02371137616070196</v>
+        <v>0.02004640330702547</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1917179028.407316</v>
+        <v>1776131066.506098</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1762478752449937</v>
+        <v>0.1581054497768195</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04273029600534089</v>
+        <v>0.038284140503261</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4646848980.221985</v>
+        <v>5263594778.840537</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07968498584979172</v>
+        <v>0.07382262718179333</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03966879721538389</v>
+        <v>0.03277027491927993</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>103</v>
+      </c>
+      <c r="J63" t="n">
+        <v>210</v>
+      </c>
+      <c r="K63" t="n">
+        <v>109.2883963927325</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4664713123.721982</v>
+        <v>5464716186.219169</v>
       </c>
       <c r="F64" t="n">
-        <v>0.179180814060576</v>
+        <v>0.1562145423830658</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03309398419766464</v>
+        <v>0.03308999958374825</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>104</v>
+      </c>
+      <c r="J64" t="n">
+        <v>210</v>
+      </c>
+      <c r="K64" t="n">
+        <v>112.4053388379226</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5944290239.842586</v>
+        <v>5954783388.118174</v>
       </c>
       <c r="F65" t="n">
-        <v>0.117098361380151</v>
+        <v>0.1405920923650353</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02567321414272983</v>
+        <v>0.01961327893258881</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>169</v>
+      </c>
+      <c r="J65" t="n">
+        <v>211</v>
+      </c>
+      <c r="K65" t="n">
+        <v>118.8247562080441</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5643508095.904976</v>
+        <v>4604846549.175632</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09969221352389604</v>
+        <v>0.12736452317341</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04568638465543955</v>
+        <v>0.03623401513508749</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>104</v>
+      </c>
+      <c r="J66" t="n">
+        <v>210</v>
+      </c>
+      <c r="K66" t="n">
+        <v>105.5970411113253</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2590259869.950034</v>
+        <v>3277611410.443989</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08474052663746205</v>
+        <v>0.07505169905579423</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04194453776155235</v>
+        <v>0.03231245758623204</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5135745085.435113</v>
+        <v>4629758997.579304</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1092619252925399</v>
+        <v>0.1561883236773336</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04820184519276501</v>
+        <v>0.04655471305653662</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>106</v>
+      </c>
+      <c r="J68" t="n">
+        <v>211</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1815746798.754093</v>
+        <v>2330560836.164579</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1481667556536327</v>
+        <v>0.1151193664827739</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03688477412767312</v>
+        <v>0.03822101869998087</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2850984913.43147</v>
+        <v>3141783353.64953</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09918855808955648</v>
+        <v>0.06639817379606688</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03167164808493638</v>
+        <v>0.03660127113724397</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5435027982.252824</v>
+        <v>3858138369.245443</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1425732633577643</v>
+        <v>0.1664572747392205</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02665627048134143</v>
+        <v>0.02224188560682031</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>161</v>
+      </c>
+      <c r="J71" t="n">
+        <v>211</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2030790733.500812</v>
+        <v>1621701255.897285</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07209648347490456</v>
+        <v>0.07227238237196396</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03246842265278822</v>
+        <v>0.04775183040043428</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2244392944.698068</v>
+        <v>2869947288.76073</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1045451182911675</v>
+        <v>0.08385367570978813</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03248514722591097</v>
+        <v>0.03307100987388385</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3408118751.609938</v>
+        <v>3059939934.548185</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1685163958879844</v>
+        <v>0.1520016102164251</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0235492503172298</v>
+        <v>0.02346968224884026</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>62</v>
+      </c>
+      <c r="J74" t="n">
+        <v>208</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1809417488.036611</v>
+        <v>2257805197.246342</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1076163433072598</v>
+        <v>0.1055164064038308</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03734147164341303</v>
+        <v>0.02411597792072778</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4808322513.158902</v>
+        <v>3853455842.520236</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0946148708870434</v>
+        <v>0.116911013569325</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03154661571402822</v>
+        <v>0.03389315716475023</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>97</v>
+      </c>
+      <c r="J76" t="n">
+        <v>210</v>
+      </c>
+      <c r="K76" t="n">
+        <v>100.8624729276724</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2311840755.448104</v>
+        <v>1772906976.774241</v>
       </c>
       <c r="F77" t="n">
-        <v>0.162360235441493</v>
+        <v>0.1590317289555677</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02598020065433585</v>
+        <v>0.02752238389600744</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4803629979.618847</v>
+        <v>2893010622.369956</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1172763366822696</v>
+        <v>0.0952641453457627</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03980176403122111</v>
+        <v>0.04423671287890045</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>106</v>
+      </c>
+      <c r="J78" t="n">
+        <v>210</v>
+      </c>
+      <c r="K78" t="n">
+        <v>66.54753691786077</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1204858967.621721</v>
+        <v>1554667390.22909</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1353613932621368</v>
+        <v>0.107163582231405</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02513742894768849</v>
+        <v>0.03505314783080104</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4267680101.146684</v>
+        <v>4654353952.023897</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08441111669800765</v>
+        <v>0.08079715872927416</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03478732795876623</v>
+        <v>0.02392860029578819</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>102</v>
+      </c>
+      <c r="J80" t="n">
+        <v>211</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3199533822.67309</v>
+        <v>4376071648.617291</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1189769926627062</v>
+        <v>0.1010568868131664</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03109433410592302</v>
+        <v>0.02655338751191929</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>97</v>
+      </c>
+      <c r="J81" t="n">
+        <v>210</v>
+      </c>
+      <c r="K81" t="n">
+        <v>101.4345484836627</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4373397343.49846</v>
+        <v>4471241937.487341</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1604422242458401</v>
+        <v>0.1487272671301949</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02377921548533515</v>
+        <v>0.02203189069287279</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>157</v>
+      </c>
+      <c r="J82" t="n">
+        <v>211</v>
+      </c>
+      <c r="K82" t="n">
+        <v>121.7048820231149</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2347694590.555769</v>
+        <v>1770246565.097533</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1477794126392087</v>
+        <v>0.1045377300600736</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03458813841223994</v>
+        <v>0.04256189063355648</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2186411197.723891</v>
+        <v>1807490147.258964</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1188241111753747</v>
+        <v>0.118696820089011</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03559919533915471</v>
+        <v>0.04742580798130133</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3631129588.27262</v>
+        <v>2327386147.097977</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1525514385517752</v>
+        <v>0.148923470777608</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03807121288742992</v>
+        <v>0.03595082726970659</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1981306195.103011</v>
+        <v>2173994050.496688</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1636012368344352</v>
+        <v>0.1238783325966551</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02471724703573764</v>
+        <v>0.02240338586743614</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1432765674.805248</v>
+        <v>1327585923.685358</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1263095689621709</v>
+        <v>0.1648843903228696</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04387369999330783</v>
+        <v>0.03509005061220913</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2772751226.461552</v>
+        <v>2925627209.759544</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1697764482330899</v>
+        <v>0.1385613072467433</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02655944009185938</v>
+        <v>0.02584421329051447</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>30</v>
+      </c>
+      <c r="J88" t="n">
+        <v>209</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2971001573.73764</v>
+        <v>2379165258.078648</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1505266519922587</v>
+        <v>0.100467971704536</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02998838351335189</v>
+        <v>0.03745111609812242</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1451313901.989943</v>
+        <v>1661428220.470217</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09221299030635759</v>
+        <v>0.1364133420752508</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05229498356616719</v>
+        <v>0.049087203934921</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1767202698.018832</v>
+        <v>1475954754.320748</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1504493334200591</v>
+        <v>0.1590249036135455</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05092239367816623</v>
+        <v>0.03923061289044554</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2929026096.699912</v>
+        <v>2803368230.593835</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08676338423216451</v>
+        <v>0.06765289611132742</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04613435781983333</v>
+        <v>0.04235366425315197</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3243462959.270741</v>
+        <v>4703346111.618058</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1246087023172326</v>
+        <v>0.09210972349014326</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03414243788303911</v>
+        <v>0.03877840883711859</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>94</v>
+      </c>
+      <c r="J93" t="n">
+        <v>211</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2377613512.27614</v>
+        <v>2436667341.169256</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1546102846338044</v>
+        <v>0.1273686614908634</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03175803981556476</v>
+        <v>0.03843118097071021</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3282612129.065212</v>
+        <v>2934489673.159246</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08566516938887175</v>
+        <v>0.08749730847496345</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04720666139635345</v>
+        <v>0.04840322227467751</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1928207935.087713</v>
+        <v>2305158395.06556</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09017603164660719</v>
+        <v>0.1365794334410055</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03693783375104022</v>
+        <v>0.04083055330582932</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4494774924.546781</v>
+        <v>4916709187.381165</v>
       </c>
       <c r="F97" t="n">
-        <v>0.143844960103299</v>
+        <v>0.155264874884758</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02670908606141919</v>
+        <v>0.01919367504969184</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>101</v>
+      </c>
+      <c r="J97" t="n">
+        <v>211</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3431961528.912168</v>
+        <v>2788472772.638444</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1155758306205762</v>
+        <v>0.1280931950264204</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02715501993514488</v>
+        <v>0.02650899558419492</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3185814035.521528</v>
+        <v>3296150845.270114</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1014898101354302</v>
+        <v>0.1321494840680005</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02504819932177461</v>
+        <v>0.02435535455046784</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3738929188.505105</v>
+        <v>3542276790.547693</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1553064622193035</v>
+        <v>0.1501722375583667</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02728442782800442</v>
+        <v>0.0173769509168401</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>87</v>
+      </c>
+      <c r="J100" t="n">
+        <v>210</v>
+      </c>
+      <c r="K100" t="n">
+        <v>95.5147127741682</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2979953120.771994</v>
+        <v>2250671781.249679</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1536114476746308</v>
+        <v>0.2085853690652693</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05866389227076382</v>
+        <v>0.04096553168277871</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
